--- a/m00.xlsx
+++ b/m00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Library/CloudStorage/Dropbox/Mac/Desktop/Work/chronological/2023/08/support-vle-man/repos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5BE54A-C77D-464E-87FC-76A69D792AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41E8E0-95F4-D844-993E-68CD4B1BB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="26320" windowHeight="19100" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>header1</t>
   </si>
@@ -38,10 +38,6 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">必携PC初期講習会では、みなさんのパソコンを広島大学のキャンパスで使用するための準備をおこないます。本日おこなうことを以下にあげます。
-  </t>
-  </si>
-  <si>
     <t>初期設定</t>
   </si>
   <si>
@@ -52,13 +48,6 @@
   </si>
   <si>
     <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3&gt;macOS編&lt;/h3&gt;
-2021年3月&lt;br&gt;
- 広島大学 情報メディア教育研究センター&lt;br&gt;
- </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>m00-01-01-imc.png</t>
@@ -140,19 +129,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広大moodle操作説明書</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ヒロダイ </t>
-    </rPh>
-    <rPh sb="8" eb="13">
-      <t xml:space="preserve">ソウサセツメイショ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>広大moodle マニュアル m00</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;はじめに&lt;/h3&gt;
+2023年8月&lt;br&gt;
+ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広大moodle操作説明書 ログイン</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t xml:space="preserve">ソウサセツメイショ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -557,15 +552,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="76">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -574,12 +569,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -614,10 +606,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19">
@@ -625,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="19">
@@ -633,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19">
@@ -641,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19">
@@ -649,7 +641,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
@@ -663,13 +655,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="114">
@@ -677,13 +669,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19">
@@ -691,13 +683,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/m00.xlsx
+++ b/m00.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Library/CloudStorage/Dropbox/Mac/Desktop/Work/chronological/2023/08/support-vle-man/repos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF41E8E0-95F4-D844-993E-68CD4B1BB38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F262D-1451-484B-A632-773E33EE9735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26320" windowHeight="19100" tabRatio="772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26320" windowHeight="19100" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
-    <sheet name="ch0" sheetId="2" r:id="rId2"/>
+    <sheet name="p1" sheetId="2" r:id="rId2"/>
+    <sheet name="p2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
   <si>
     <t>header1</t>
   </si>
@@ -518,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -697,4 +698,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A55DE7-8571-C145-9DE5-08B4E3351BCD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="114">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/m00.xlsx
+++ b/m00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumiya/Library/CloudStorage/Dropbox/Mac/Desktop/Work/chronological/2023/08/support-vle-man/repos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F262D-1451-484B-A632-773E33EE9735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF4AED-76F7-5E41-B9EB-797861B5999F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26320" windowHeight="19100" tabRatio="772" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6200" yWindow="8420" windowWidth="20020" windowHeight="11840" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
   <si>
     <t>header1</t>
   </si>
@@ -150,6 +150,10 @@
     <rPh sb="8" eb="13">
       <t xml:space="preserve">ソウサセツメイショ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m00-01-01-imc.svg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -592,6 +596,118 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="84.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="114">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A55DE7-8571-C145-9DE5-08B4E3351BCD}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -698,116 +814,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A55DE7-8571-C145-9DE5-08B4E3351BCD}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="19">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="114">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>